--- a/Data Analysis/Parasite Conservation/Georgia's Parasitic Plants Copy.xlsx
+++ b/Data Analysis/Parasite Conservation/Georgia's Parasitic Plants Copy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jargrett/Desktop/Castilleja/Data Analysis/Parasite Conservation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3451C48E-D1AC-F442-ACA6-D53F972104E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1326E73A-3774-CD40-B9E9-DCCCC895CD95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17480" xr2:uid="{FEB85F31-DED2-46FA-BDE3-EA9319E79D36}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="202">
   <si>
     <t>EO's</t>
   </si>
@@ -639,6 +639,9 @@
   </si>
   <si>
     <t>No?</t>
+  </si>
+  <si>
+    <t>Yes</t>
   </si>
 </sst>
 </file>
@@ -756,10 +759,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1061,9 +1060,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44CD1056-A9E3-4787-8A51-B74389EE3481}">
   <dimension ref="A1:P59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
+      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -1142,7 +1141,9 @@
       <c r="B2" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="C2" s="3"/>
+      <c r="C2" s="3" t="s">
+        <v>201</v>
+      </c>
       <c r="D2" s="3" t="s">
         <v>183</v>
       </c>
@@ -2952,6 +2953,14 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="86312d89-d4f9-41de-8623-540574ee13ac" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003E6B83F78B983C4CB7E2CB4C7072482A" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9a313285e4b9020788ac7db89b798ba8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="86312d89-d4f9-41de-8623-540574ee13ac" xmlns:ns4="c5ee500c-3dfe-4720-87b5-4e46b8dafc43" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="67c5d958ade9ef2d4ee377f3498f7648" ns3:_="" ns4:_="">
     <xsd:import namespace="86312d89-d4f9-41de-8623-540574ee13ac"/>
@@ -3180,14 +3189,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="86312d89-d4f9-41de-8623-540574ee13ac" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{26B0A5EC-FFCE-4B08-8282-FE2092F62383}">
   <ds:schemaRefs>
@@ -3197,6 +3198,23 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{05D62CBA-72D3-4B46-B2BA-B642C1599E93}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="86312d89-d4f9-41de-8623-540574ee13ac"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="c5ee500c-3dfe-4720-87b5-4e46b8dafc43"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D486DAEA-D968-4D90-8D26-F3602DFF1277}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3213,21 +3231,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{05D62CBA-72D3-4B46-B2BA-B642C1599E93}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="86312d89-d4f9-41de-8623-540574ee13ac"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="c5ee500c-3dfe-4720-87b5-4e46b8dafc43"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>